--- a/data/aggregated_single_ext/config_auto.xlsx
+++ b/data/aggregated_single_ext/config_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.9730319692234</v>
+        <v>577.1632377688619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.294882793812789</v>
+        <v>0.1621898976982097</v>
       </c>
       <c r="D2" t="n">
-        <v>6271</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>221.5981838184647</v>
+        <v>478.5135725967414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.655850622406639</v>
+        <v>0.6829002036659877</v>
       </c>
       <c r="D3" t="n">
-        <v>964</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>656.1437117348435</v>
+        <v>244.2898869606224</v>
       </c>
       <c r="C4" t="n">
-        <v>0.141925383077948</v>
+        <v>0.1614703080342966</v>
       </c>
       <c r="D4" t="n">
-        <v>1501</v>
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bs_auto4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>363.727832</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bs_auto5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>431.774757</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bs_auto6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>246.795793</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bs_auto7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>191.663107</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/aggregated_single_ext/config_auto.xlsx
+++ b/data/aggregated_single_ext/config_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577.1632377688619</v>
+        <v>406.9730319692234</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1621898976982097</v>
+        <v>0.294882793812789</v>
       </c>
       <c r="D2" t="n">
-        <v>3121</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>478.5135725967414</v>
+        <v>221.5981838184647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6829002036659877</v>
+        <v>0.655850622406639</v>
       </c>
       <c r="D3" t="n">
-        <v>2455</v>
+        <v>964</v>
       </c>
     </row>
     <row r="4">
@@ -494,77 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.2898869606224</v>
+        <v>656.1437117348435</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1614703080342966</v>
+        <v>0.141925383077948</v>
       </c>
       <c r="D4" t="n">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bs_auto4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>363.727832</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bs_auto5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>431.774757</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bs_auto6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>246.795793</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bs_auto7</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>191.663107</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
     </row>
   </sheetData>

--- a/data/aggregated_single_ext/config_auto.xlsx
+++ b/data/aggregated_single_ext/config_auto.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
